--- a/ddap-v2-process/src/main/resources/static/resources/template/device.xlsx
+++ b/ddap-v2-process/src/main/resources/static/resources/template/device.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>serialNumber/硬件编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T0123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>海康</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,18 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address/地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0123457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4幢706</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,16 +490,17 @@
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -502,30 +511,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -533,147 +545,160 @@
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6">
         <v>120.12300999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>30.456009999999999</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
